--- a/users_backup.xlsx
+++ b/users_backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35cb429d18e4db0f/Desktop/바탕화면/coding/pdf_printer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{58F198AA-837A-4686-B98F-7EAF3A703820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A75AB013-5E72-4497-96FE-4D702BB67808}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{58F198AA-837A-4686-B98F-7EAF3A703820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D69B5AE-B52E-4DAF-9FCD-BD3CC1681EBA}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="0" windowWidth="22935" windowHeight="15585" xr2:uid="{31A522A1-8450-4866-AE95-60384947FB71}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{31A522A1-8450-4866-AE95-60384947FB71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="305">
   <si>
     <t>강경화</t>
   </si>
@@ -903,13 +903,77 @@
   <si>
     <t>강경화.pdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장원식</t>
+  </si>
+  <si>
+    <t>39399</t>
+  </si>
+  <si>
+    <t>장원식.pdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이규범</t>
+  </si>
+  <si>
+    <t>22231</t>
+  </si>
+  <si>
+    <t>이규범.pdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정유섭</t>
+  </si>
+  <si>
+    <t>18284</t>
+  </si>
+  <si>
+    <t>정유섭.pdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상률</t>
+  </si>
+  <si>
+    <t>32373</t>
+  </si>
+  <si>
+    <t>이상률.pdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규택</t>
+  </si>
+  <si>
+    <t>16438</t>
+  </si>
+  <si>
+    <t>정규택.pdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백승록</t>
+  </si>
+  <si>
+    <t>26941</t>
+  </si>
+  <si>
+    <t>백승록.pdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,6 +986,13 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -948,13 +1019,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -970,10 +1042,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1273,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF868739-5124-451D-80C8-FA9D764B4CA4}">
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F127" sqref="F127:F128"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3070,6 +3138,81 @@
         <v>홍재현.pdf</v>
       </c>
     </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>286</v>
+      </c>
+      <c r="B150" t="s">
+        <v>287</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>289</v>
+      </c>
+      <c r="B151" t="s">
+        <v>290</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>292</v>
+      </c>
+      <c r="B152" t="s">
+        <v>293</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>295</v>
+      </c>
+      <c r="B153" t="s">
+        <v>296</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>298</v>
+      </c>
+      <c r="B154" t="s">
+        <v>299</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>301</v>
+      </c>
+      <c r="B155" t="s">
+        <v>302</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>304</v>
+      </c>
+      <c r="B156" s="2">
+        <v>8465</v>
+      </c>
+      <c r="C156" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
